--- a/metadados-depara.xlsx
+++ b/metadados-depara.xlsx
@@ -5,21 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\Documents\projetos GitHub\dados-mg\inventario-de-dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\Documents\repositorios\dados-mg\inventario-de-dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="metadados-depara" sheetId="1" r:id="rId1"/>
+    <sheet name="depara" sheetId="1" r:id="rId1"/>
+    <sheet name="DCAT-US Schema" sheetId="5" r:id="rId2"/>
+    <sheet name="lista_federal" sheetId="4" r:id="rId3"/>
+    <sheet name="contratos_COVID" sheetId="3" r:id="rId4"/>
+    <sheet name="datasets_ckan" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="440">
   <si>
     <t>FRICTIONLESS_DATA</t>
   </si>
@@ -30,9 +34,6 @@
     <t>TIPO</t>
   </si>
   <si>
-    <t>CONCEITO</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -258,21 +259,6 @@
     <t>The datetime on which this was created.</t>
   </si>
   <si>
-    <t>Fontes</t>
-  </si>
-  <si>
-    <t>https://docs.ckan.org/en/2.8/api/index.html</t>
-  </si>
-  <si>
-    <t>https://create.frictionlessdata.io/</t>
-  </si>
-  <si>
-    <t>https://specs.frictionlessdata.io/data-package/#specification</t>
-  </si>
-  <si>
-    <t>homepage/path</t>
-  </si>
-  <si>
     <t>package_id </t>
   </si>
   <si>
@@ -322,13 +308,1048 @@
   </si>
   <si>
     <t>iso date string</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>casos-confirmados-coronavirus,</t>
+  </si>
+  <si>
+    <t>casos-notificados-coronavirus</t>
+  </si>
+  <si>
+    <t>compras-contratos-do-estado-de-minas-gerais</t>
+  </si>
+  <si>
+    <t>contratacoes-coronavirus</t>
+  </si>
+  <si>
+    <t>conv</t>
+  </si>
+  <si>
+    <t>despesa-do-estado-de-minas-gerais-2015-2016</t>
+  </si>
+  <si>
+    <t>despesas-com-diarias-2015-2016</t>
+  </si>
+  <si>
+    <t>despesas-com-pessoal-2015-2016</t>
+  </si>
+  <si>
+    <t>despesas-com-restos-a-pagar-2015-2016</t>
+  </si>
+  <si>
+    <t>dicionario-de-dados-portal-da-transparencia</t>
+  </si>
+  <si>
+    <t>divida-publica-do-estado-2015-2016</t>
+  </si>
+  <si>
+    <t>doacoes-ao-governo</t>
+  </si>
+  <si>
+    <t>lista-de-servicos-disponibilizados-no-portal-de-servicos-do-governo-do-estado-de-minas-gerais</t>
+  </si>
+  <si>
+    <t>obitos-confirmados-coronavirus</t>
+  </si>
+  <si>
+    <t>preview</t>
+  </si>
+  <si>
+    <t>programa-de-financiamento-2009</t>
+  </si>
+  <si>
+    <t>programa-de-financiamento-2010</t>
+  </si>
+  <si>
+    <t>programa-de-financiamento-2011</t>
+  </si>
+  <si>
+    <t>programa-de-financiamento-2012</t>
+  </si>
+  <si>
+    <t>programa-de-financiamento-2013</t>
+  </si>
+  <si>
+    <t>programa-de-financiamento-2014</t>
+  </si>
+  <si>
+    <t>programa-de-financiamento-2015</t>
+  </si>
+  <si>
+    <t>programa-de-financiamento-2016</t>
+  </si>
+  <si>
+    <t>programa-de-financiamento-2017</t>
+  </si>
+  <si>
+    <t>programa-de-financiamento-2018</t>
+  </si>
+  <si>
+    <t>programas-de-financiamento-2008</t>
+  </si>
+  <si>
+    <t>receita-publica-do-estado-de-minas-gerais-2015-2016</t>
+  </si>
+  <si>
+    <t>relatorios-de-pedidos-por-instituicao</t>
+  </si>
+  <si>
+    <t>remuneracao-dos-servidores</t>
+  </si>
+  <si>
+    <t>repasse-a-municipios-2015-2016</t>
+  </si>
+  <si>
+    <t>termos-de-parceria-e-contratos-de-gestao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>author_email</t>
+  </si>
+  <si>
+    <t>creator_user_id</t>
+  </si>
+  <si>
+    <t>794c5f4e-569b-49c0-bdac-e2a56cd096ae</t>
+  </si>
+  <si>
+    <t>extras</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>f70b9258-6a29-47ec-a998-23ac4d74548f</t>
+  </si>
+  <si>
+    <t>isopen</t>
+  </si>
+  <si>
+    <t>license_id</t>
+  </si>
+  <si>
+    <t>notspecified</t>
+  </si>
+  <si>
+    <t>license_title</t>
+  </si>
+  <si>
+    <t>Licença Não Especificada</t>
+  </si>
+  <si>
+    <t>maintainer</t>
+  </si>
+  <si>
+    <t>Diretoria Central de Transparência Ativa</t>
+  </si>
+  <si>
+    <t>maintainer_email</t>
+  </si>
+  <si>
+    <t>transparencia@cge.mg.gov.br</t>
+  </si>
+  <si>
+    <t>metadata_created</t>
+  </si>
+  <si>
+    <t>2020-03-28T22:35:12.389364</t>
+  </si>
+  <si>
+    <t>metadata_modified</t>
+  </si>
+  <si>
+    <t>2020-06-15T12:41:48.054153</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Este conjunto de dados contém relação das contratações celebradas pelo Governo de Minas Gerais com fulcro na Lei Federal n. 13.979 de 06 de fevereiro de 2020 e Lei Estadual n. 23.640/2020 para enfrentamento da emergência de saúde pública de importância internacional decorrente do coronavírus.\r\n\r\nA atualização desta relação se dará por intermédio da Diretoria Central de Transparência Ativa da Controladoria-Geral do Estado, após a remessa de informações por parte do órgão ou entidade responsável pela contratação.\r\n\r\nAs informações sobre as contratações e aquisições para enfrentar a emergência de saúde pública decorrente da pandemia da COVID-19 estão dispostas no Portal de Transparência de três formas, para conhecê-las [clique aqui](http://transparencia.mg.gov.br/perguntas-frequentes#todas-as-contrata%C3%A7%C3%B5es-ou-aquisi%C3%A7%C3%B5es-realizadas-para-o-combate-da-pandemia-da-covid-19-s%C3%A3o-contrata%C3%A7%C3%B5es-emergenciais).\r\n\r\n## Atualizações relevantes\r\n\r\n### 10/06/2020\r\n\r\n* Inserção de variáveis adicionais relativas ao processo de compra\r\n    * `DATA_CADASTRAMENTO_PROCESSO`\r\n    * `URL_DOCUMENTOS_PROCESSO`\r\n    * `SITUACAO_PROCESSO`\r\n    * `PROCEDIMENTO_CONTRATACAO`\r\n    * `CODIGO_ORGAO_CONTRATO`\r\n    * `ORGAO_CONTRATO`\r\n    * `DATA_PUBLICACAO`\r\n    * `URL_PROCESSO_SEI`\r\n* Inserção de variáveis relacionadas ao(s) item(s) de material/serviço constantes do processo de compra\r\n    * `CODIGO_ITEM_MATERIAL_SERVICO`\r\n    * `ITEM_MATERIAL_SERVICO`\r\n    * `CODIGO_UNIDADE_ORCAMENTARIA`\r\n    * `UNIDADE_ORCAMENTARIA`\r\n    * `LINHA_FORNECIMENTO`\r\n    * `CIDADE_ENTREGA`\r\n    * `QUANTIDADE_HOMOLOGADA`\r\n    * `VALOR_REFERENCIA_UNITARIO`\r\n    * `VALOR_HOMOLOGADO_UNITARIO`\r\n* Alteração do separador do `csv` para `,`\r\n* Divulgação dos dados como planilha eletrônica\r\n* Exclusão das colunas `ANO` e `SIGLA_ORGAO_ENTIDADE`\r\n* Alteração no arquivo csv do formato das colunas data de `YYYYMMDD` para `YYYY-MM-DD`\r\n* Alteração dos nomes das colunas\r\n    * `CODIGO_ORGAO_ENTIDADE` -&gt; `CODIGO_ORGAO_CONTRATO`\r\n    * `OBJETO` -&gt; `OBJETO_PROCESSO`\r\n    * `VALOR` -&gt; `VALOR_HOMOLOGADO`\r\n    * `LINK_SEI` -&gt; `URL_PROCESSO_SEI`\r\n    * `PROCESSO_COMPRA` -&gt; `NUMERO_PROCESSO_COMPRA`\r\n    * `NUMERO_SIAFI` -&gt; `NUMERO_CONTRATO`\r\n    * `INTEGRA_CONTRATO` -&gt; `URL_INTEGRA_CONTRATO`\r\n    * `LINK_PORTAL` -&gt; `URL_PORTAL_TRANSPARENCIA`\r\n\r\n### 28/03/2020\r\n\r\n* Divulgação inicial\r\n</t>
+  </si>
+  <si>
+    <t>num_resources</t>
+  </si>
+  <si>
+    <t>num_tags</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>approval_status</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>2014-07-04T11:46:43.318636</t>
+  </si>
+  <si>
+    <t>bca777ca-8995-40ec-93a7-eb9a3aa39803</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>20180518-191253.986728cge.png</t>
+  </si>
+  <si>
+    <t>is_organization</t>
+  </si>
+  <si>
+    <t>controladoria-geral-do-estado-cge</t>
+  </si>
+  <si>
+    <t>revision_id</t>
+  </si>
+  <si>
+    <t>afefa1a0-e308-43b9-97b3-e30b86efe075</t>
+  </si>
+  <si>
+    <t>revision_timestamp</t>
+  </si>
+  <si>
+    <t>2018-05-18T19:12:53.991591</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Controladoria Geral do Estado - CGE</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>owner_org</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>relationships_as_object</t>
+  </si>
+  <si>
+    <t>relationships_as_subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      {</t>
+  </si>
+  <si>
+    <t>cache_last_updated</t>
+  </si>
+  <si>
+    <t>cache_url</t>
+  </si>
+  <si>
+    <t>2020-03-28T19:41:37.098546</t>
+  </si>
+  <si>
+    <t>Este conjunto de dados contém relação das contratações celebradas pelo Governo de Minas Gerais com fulcro na Lei Federal n. 13.979 de 06 de fevereiro de 2020 para enfrentamento do coronavírus (COVID-19).</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>43e125af-3ef0-4afa-87a8-a47b633142f1</t>
+  </si>
+  <si>
+    <t>last_modified</t>
+  </si>
+  <si>
+    <t>mimetype</t>
+  </si>
+  <si>
+    <t>mimetype_inner</t>
+  </si>
+  <si>
+    <t>Compras Emergenciais</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>resource_group_id</t>
+  </si>
+  <si>
+    <t>64a36ec9-c697-45c8-a7dc-a1ea4e1012d9</t>
+  </si>
+  <si>
+    <t>resource_type</t>
+  </si>
+  <si>
+    <t>8e96d871-6057-47d0-bf00-6adeb3d9a5fd</t>
+  </si>
+  <si>
+    <t>2020-06-10T14:55:51.723815</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>tracking_summary</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>http://www.transparencia.dadosabertos.mg.gov.br/dataset/f70b9258-6a29-47ec-a998-23ac4d74548f/resource/43e125af-3ef0-4afa-87a8-a47b633142f1/download/comprascoronavirus.csv</t>
+  </si>
+  <si>
+    <t>url_type</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>webstore_last_updated</t>
+  </si>
+  <si>
+    <t>webstore_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      },</t>
+  </si>
+  <si>
+    <t>2020-06-10T11:55:41.081059</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>314f9ade-d2ea-42c0-8c60-5b4b3ec94355</t>
+  </si>
+  <si>
+    <t>df517b30-e874-40ee-9a21-818a8d63670a</t>
+  </si>
+  <si>
+    <t>2020-06-10T14:56:22.723330</t>
+  </si>
+  <si>
+    <t>http://www.transparencia.dadosabertos.mg.gov.br/dataset/f70b9258-6a29-47ec-a998-23ac4d74548f/resource/314f9ade-d2ea-42c0-8c60-5b4b3ec94355/download/comprascoronavirus.xls</t>
+  </si>
+  <si>
+    <t>2020-06-15T09:28:29.209869</t>
+  </si>
+  <si>
+    <t>Arquivo em formato csv contendo a descrição dos campos do arquivo Compras Emergenciais</t>
+  </si>
+  <si>
+    <t>ca0cb625-68bb-4eaf-b4f5-0f86f31ce5c8</t>
+  </si>
+  <si>
+    <t>Dicionário de dados das Compras Emergenciais</t>
+  </si>
+  <si>
+    <t>4fd31769-665a-4953-8612-262c487c49c4</t>
+  </si>
+  <si>
+    <t>2020-06-15T12:40:47.920473</t>
+  </si>
+  <si>
+    <t>http://www.transparencia.dadosabertos.mg.gov.br/dataset/f70b9258-6a29-47ec-a998-23ac4d74548f/resource/ca0cb625-68bb-4eaf-b4f5-0f86f31ce5c8/download/dicionariodados.csv</t>
+  </si>
+  <si>
+    <t>2020-06-15T09:41:48.069808</t>
+  </si>
+  <si>
+    <t>Arquivo em formato excel (xls) contendo a descrição dos campos do arquivo Compras Emergenciais</t>
+  </si>
+  <si>
+    <t>8a5c1b94-ecd7-4d45-b4dd-232f60c6570d</t>
+  </si>
+  <si>
+    <t>19d89d5f-476c-44ee-bd5b-454e355c7038</t>
+  </si>
+  <si>
+    <t>2020-06-15T12:41:48.053303</t>
+  </si>
+  <si>
+    <t>http://www.transparencia.dadosabertos.mg.gov.br/dataset/f70b9258-6a29-47ec-a998-23ac4d74548f/resource/8a5c1b94-ecd7-4d45-b4dd-232f60c6570d/download/dicionariodados.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ],</t>
+  </si>
+  <si>
+    <t>2487e620-51ef-45d4-bf05-631056abb2c5</t>
+  </si>
+  <si>
+    <t>2020-06-10T17:12:22.264158</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Contratações para enfrentamento do coronavírus (COVID-19)</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>SEPLAG</t>
+  </si>
+  <si>
+    <t>CGE</t>
+  </si>
+  <si>
+    <t>FAPEMIG</t>
+  </si>
+  <si>
+    <t>chave</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>false,</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> null</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>hiperlink do campo de maintainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">não </t>
+  </si>
+  <si>
+    <t>é possível chevar na URL, não há campo de metadado com tal valor</t>
+  </si>
+  <si>
+    <t>é possível visualizar os recursos, não um campo de metadados que os quantifique</t>
+  </si>
+  <si>
+    <t>é possível ver as tags, não um campo de metadados que as quantifica tal valor</t>
+  </si>
+  <si>
+    <t>visivel</t>
+  </si>
+  <si>
+    <t>visivel_obs</t>
+  </si>
+  <si>
+    <t>editavel</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>automatico</t>
+  </si>
+  <si>
+    <t>automático</t>
+  </si>
+  <si>
+    <t>abrangencia</t>
+  </si>
+  <si>
+    <t>organizacao</t>
+  </si>
+  <si>
+    <t>obrigatórios</t>
+  </si>
+  <si>
+    <t>recursos</t>
+  </si>
+  <si>
+    <t>desejáveis</t>
+  </si>
+  <si>
+    <t>Recursos: O critério básico para separar vários recursos em mais de um conjunto de dados é a constatação de que eles divergem em vários metadados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Título</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nome do conjunto de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Descrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uma breve explicação sobre os dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Catálogo origem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Página (URL) do órgão onde está publicado o conjunto de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Órgão responsável</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nome e sigla do órgão ou entidade responsável pela publicação do conjunto de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Categorias no VCGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O Vocabulário Controlado de Governo Eletrônico é uma lista hierarquizada de assuntos do governo que utiliza termos comuns e é voltada para a sociedade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identificador</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL persistente que aponta para o recurso na Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nome do recurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Formato</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Formato do recurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Breve detalhamento sobre o conteúdo do recurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Etiquetas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lista de palavras chaves relacionadas ao conjunto de dados, e que são úteis na classificação e busca dele</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Instituição ou pessoa responsável pela produção do recurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentação</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL de documento que expõe detalhes sobre o conjunto de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cobertura geográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Localização ou região geográfica a que se referem os dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cobertura temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data ou período à que referem os dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Granularidade geográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precisão geográfica da cobertura geográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Granularidade temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Precisão temporal da cobertura temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frequência de atualização</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frequência temporal com que o conjunto de dados é atualizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Referências</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relações com outros conjuntos de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metodologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processo de criação dos dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vocabulário/ontologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentos estruturados com metadados específicos do conjunto de dados</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>conceito</t>
+  </si>
+  <si>
+    <t>exemplo</t>
+  </si>
+  <si>
+    <t>XML, JSON, CSV, etc</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>03/2012</t>
+  </si>
+  <si>
+    <t>municipal</t>
+  </si>
+  <si>
+    <t>mês</t>
+  </si>
+  <si>
+    <t>lista_federal</t>
+  </si>
+  <si>
+    <t>author (Dataset)</t>
+  </si>
+  <si>
+    <t>(extra)</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>dados-mg</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Etiquetas</t>
+  </si>
+  <si>
+    <t>Autoria</t>
+  </si>
+  <si>
+    <t>Órgão responsável</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>@type</t>
+  </si>
+  <si>
+    <t>Metadata Type</t>
+  </si>
+  <si>
+    <t>IRI for the JSON-LD data type. This should be dcat:Dataset for each Dataset.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Human-readable name of the asset. Should be in plain English and include sufficient detail to facilitate search and discovery.</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Human-readable description (e.g., an abstract) with sufficient detail to enable a user to quickly understand whether the asset is of interest.</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags (or keywords) help users discover your dataset; please include terms that would be used by technical and non-technical users.</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>Last Update</t>
+  </si>
+  <si>
+    <t>Most recent date on which the dataset was changed, updated or modified.</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>The publishing entity and optionally their parent organization(s).</t>
+  </si>
+  <si>
+    <t>contactPoint</t>
+  </si>
+  <si>
+    <t>Contact Name and Email</t>
+  </si>
+  <si>
+    <t>Contact person’s name and email for the asset.</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>Unique Identifier</t>
+  </si>
+  <si>
+    <t>A unique identifier for the dataset or API as maintained within an Agency catalog or database.</t>
+  </si>
+  <si>
+    <t>accessLevel</t>
+  </si>
+  <si>
+    <t>Public Access Level</t>
+  </si>
+  <si>
+    <t>The degree to which this dataset could be made publicly-available, regardless of whether it has been made available. Choices: public (Data asset is or could be made publicly available to all without restrictions), restricted public (Data asset is available under certain use restrictions), or non-public (Data asset is not available to members of the public).</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>The license or non-license (i.e. Public Domain) status with which the dataset or API has been published. See Open Licenses for more information.</t>
+  </si>
+  <si>
+    <t>If-Applicable</t>
+  </si>
+  <si>
+    <t>rights</t>
+  </si>
+  <si>
+    <t>Rights</t>
+  </si>
+  <si>
+    <t>This may include information regarding access or restrictions based on privacy, security, or other policies. This should also serve as an explanation for the selected “accessLevel” including instructions for how to access a restricted file, if applicable, or explanation for why a “non-public” or “restricted public” data asset is not “public,” if applicable. Text, 255 characters.</t>
+  </si>
+  <si>
+    <t>bureauCodeUSG</t>
+  </si>
+  <si>
+    <t>Bureau Code</t>
+  </si>
+  <si>
+    <t>Federal agencies, combined agency and bureau code from OMB Circular A-11, Appendix C (PDF, CSV) in the format of 015:11.</t>
+  </si>
+  <si>
+    <t>programCodeUSG</t>
+  </si>
+  <si>
+    <t>Program Code</t>
+  </si>
+  <si>
+    <t>Federal agencies, list the primary program related to this data asset, from the Federal Program Inventory. Use the format of 015:001.</t>
+  </si>
+  <si>
+    <t>spatial</t>
+  </si>
+  <si>
+    <t>Spatial</t>
+  </si>
+  <si>
+    <t>The range of spatial applicability of a dataset. Could include a spatial region like a bounding box or a named place.</t>
+  </si>
+  <si>
+    <t>temporal</t>
+  </si>
+  <si>
+    <t>Temporal</t>
+  </si>
+  <si>
+    <t>The range of temporal applicability of a dataset (i.e., a start and end date of applicability for the data).</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>A container for the array of Distribution objects. See Dataset Distribution Fields below for details.</t>
+  </si>
+  <si>
+    <t>accrualPeriodicity</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>The frequency with which dataset is published.</t>
+  </si>
+  <si>
+    <t>conformsTo</t>
+  </si>
+  <si>
+    <t>Data Standard</t>
+  </si>
+  <si>
+    <t>URI used to identify a standardized specification the dataset conforms to.</t>
+  </si>
+  <si>
+    <t>dataQualityUSG</t>
+  </si>
+  <si>
+    <t>Data Quality</t>
+  </si>
+  <si>
+    <t>Whether the dataset meets the agency’s Information Quality Guidelines (true/false).</t>
+  </si>
+  <si>
+    <t>describedBy</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
+  </si>
+  <si>
+    <t>URL to the data dictionary for the dataset. Note that documentation other than a data dictionary can be referenced using Related Documents (references).</t>
+  </si>
+  <si>
+    <t>describedByType</t>
+  </si>
+  <si>
+    <t>Data Dictionary Type</t>
+  </si>
+  <si>
+    <t>The machine-readable file format (IANA Media Type also known as MIME Type) of the dataset’s Data Dictionary (describedBy).</t>
+  </si>
+  <si>
+    <t>isPartOf</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>The collection of which the dataset is a subset.</t>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>Release Date</t>
+  </si>
+  <si>
+    <t>Date of formal issuance.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>The language of the dataset.</t>
+  </si>
+  <si>
+    <t>landingPage</t>
+  </si>
+  <si>
+    <t>Homepage URL</t>
+  </si>
+  <si>
+    <t>This field is not intended for an agency’s homepage (e.g. www.agency.gov), but rather if a dataset has a human-friendly hub or landing page that users can be directed to for all resources tied to the dataset.</t>
+  </si>
+  <si>
+    <t>primaryITInvestmentUIIUSG</t>
+  </si>
+  <si>
+    <t>Primary IT Investment UII</t>
+  </si>
+  <si>
+    <t>For linking a dataset with an IT Unique Investment Identifier (UII).</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>Related Documents</t>
+  </si>
+  <si>
+    <t>Related documents such as technical information about a dataset, developer documentation, etc.</t>
+  </si>
+  <si>
+    <t>systemOfRecordsUSG</t>
+  </si>
+  <si>
+    <t>System of Records</t>
+  </si>
+  <si>
+    <t>If the system is designated as a system of records under the Privacy Act of 1974, provide the URL to the System of Records Notice related to this dataset.</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Main thematic category of the dataset.</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>contactpoint</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>vide issue</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>DCAT-US Schema</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>item relacionado</t>
+  </si>
+  <si>
+    <t>IRI for the JSON-LD data type. This should be dcat:Distribution for each Distribution.</t>
+  </si>
+  <si>
+    <t>accessURL</t>
+  </si>
+  <si>
+    <t>Access URL</t>
+  </si>
+  <si>
+    <t>URL providing indirect access to a dataset, for example via API or a graphical interface.</t>
+  </si>
+  <si>
+    <t>URI used to identify a standardized specification the distribution conforms to.</t>
+  </si>
+  <si>
+    <t>URL to the data dictionary for the distribution found at the downloadURL. Note that documentation other than a data dictionary can be referenced using Related Documents as shown in the expanded fields.</t>
+  </si>
+  <si>
+    <t>The machine-readable file format (IANA Media Type or MIME Type) of the distribution’s describedBy URL.</t>
+  </si>
+  <si>
+    <t>Human-readable description of the distribution.</t>
+  </si>
+  <si>
+    <t>downloadURL</t>
+  </si>
+  <si>
+    <t>Download URL</t>
+  </si>
+  <si>
+    <t>URL providing direct access to a downloadable file of a dataset.</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>A human-readable description of the file format of a distribution.</t>
+  </si>
+  <si>
+    <t>mediaType</t>
+  </si>
+  <si>
+    <t>Media Type</t>
+  </si>
+  <si>
+    <t>The machine-readable file format (IANA Media Type or MIME Type) of the distribution’s downloadURL.</t>
+  </si>
+  <si>
+    <t>Human-readable name of the distribution.</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>CONCEITO API_CKAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +1480,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -651,7 +1695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -793,8 +1837,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -837,8 +1943,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -848,8 +1955,40 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -879,6 +2018,7 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,6 +2044,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12982575" y="2295525"/>
+          <a:ext cx="9801224" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,566 +2358,4826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="91.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="91.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="7" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+      <c r="E23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+      <c r="E24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="7" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="E25" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="F25" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="7" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="7" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
+      <c r="E27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="7" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="7" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
+      <c r="E43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="C1" r:id="rId3" location="specification"/>
+    <hyperlink ref="D1" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" t="s">
+        <v>376</v>
+      </c>
+      <c r="E19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" t="s">
+        <v>385</v>
+      </c>
+      <c r="E22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" t="s">
+        <v>391</v>
+      </c>
+      <c r="E24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D26" t="s">
+        <v>397</v>
+      </c>
+      <c r="E26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" t="s">
+        <v>399</v>
+      </c>
+      <c r="D27" t="s">
+        <v>400</v>
+      </c>
+      <c r="E27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>401</v>
+      </c>
+      <c r="C28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D28" t="s">
+        <v>403</v>
+      </c>
+      <c r="E28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>404</v>
+      </c>
+      <c r="C29" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>407</v>
+      </c>
+      <c r="C30" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" t="s">
+        <v>421</v>
+      </c>
+      <c r="E32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C33" t="s">
+        <v>423</v>
+      </c>
+      <c r="D33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B34" t="s">
+        <v>374</v>
+      </c>
+      <c r="C34" t="s">
+        <v>375</v>
+      </c>
+      <c r="D34" t="s">
+        <v>425</v>
+      </c>
+      <c r="E34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35" t="s">
+        <v>380</v>
+      </c>
+      <c r="C35" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" t="s">
+        <v>426</v>
+      </c>
+      <c r="E35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>368</v>
+      </c>
+      <c r="B36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" t="s">
+        <v>427</v>
+      </c>
+      <c r="E36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>368</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>329</v>
+      </c>
+      <c r="D37" t="s">
+        <v>428</v>
+      </c>
+      <c r="E37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>368</v>
+      </c>
+      <c r="B38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" t="s">
+        <v>430</v>
+      </c>
+      <c r="D38" t="s">
+        <v>431</v>
+      </c>
+      <c r="E38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>432</v>
+      </c>
+      <c r="D39" t="s">
+        <v>433</v>
+      </c>
+      <c r="E39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" t="s">
+        <v>434</v>
+      </c>
+      <c r="C40" t="s">
+        <v>435</v>
+      </c>
+      <c r="D40" t="s">
+        <v>436</v>
+      </c>
+      <c r="E40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>326</v>
+      </c>
+      <c r="D41" t="s">
+        <v>437</v>
+      </c>
+      <c r="E41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="H2" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="K14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="K16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="K17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
+      <c r="K18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="18"/>
+      <c r="K19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="18"/>
+      <c r="J21" t="s">
+        <v>420</v>
+      </c>
+      <c r="K21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="K22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="16"/>
+      <c r="H24" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="J24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="16"/>
+      <c r="H25" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="J25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K12" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
+    <hyperlink ref="H1" r:id="rId3"/>
+    <hyperlink ref="G1" r:id="rId4" location="specification"/>
+    <hyperlink ref="F1" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G159"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" t="s">
+        <v>241</v>
+      </c>
+      <c r="G47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" t="s">
+        <v>240</v>
+      </c>
+      <c r="G50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" t="s">
+        <v>241</v>
+      </c>
+      <c r="G51" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" t="s">
+        <v>241</v>
+      </c>
+      <c r="G54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>241</v>
+      </c>
+      <c r="G57" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>241</v>
+      </c>
+      <c r="G58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" t="s">
+        <v>240</v>
+      </c>
+      <c r="G59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" t="s">
+        <v>240</v>
+      </c>
+      <c r="G60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" t="s">
+        <v>241</v>
+      </c>
+      <c r="G61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" t="s">
+        <v>241</v>
+      </c>
+      <c r="G62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" t="s">
+        <v>241</v>
+      </c>
+      <c r="G65" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" t="s">
+        <v>240</v>
+      </c>
+      <c r="G67" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" t="s">
+        <v>241</v>
+      </c>
+      <c r="G70" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" t="s">
+        <v>239</v>
+      </c>
+      <c r="E72" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" t="s">
+        <v>241</v>
+      </c>
+      <c r="G73" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" t="s">
+        <v>241</v>
+      </c>
+      <c r="G74" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" t="s">
+        <v>241</v>
+      </c>
+      <c r="G78" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" t="s">
+        <v>206</v>
+      </c>
+      <c r="E79" t="s">
+        <v>240</v>
+      </c>
+      <c r="G79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" t="s">
+        <v>241</v>
+      </c>
+      <c r="G80" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" t="s">
+        <v>241</v>
+      </c>
+      <c r="G81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>241</v>
+      </c>
+      <c r="G84" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" t="s">
+        <v>208</v>
+      </c>
+      <c r="E86" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>200</v>
+      </c>
+      <c r="D88" t="s">
+        <v>239</v>
+      </c>
+      <c r="E88" t="s">
+        <v>241</v>
+      </c>
+      <c r="G88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" t="s">
+        <v>241</v>
+      </c>
+      <c r="G89" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" t="s">
+        <v>239</v>
+      </c>
+      <c r="E92" t="s">
+        <v>241</v>
+      </c>
+      <c r="G92" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" t="s">
+        <v>239</v>
+      </c>
+      <c r="E93" t="s">
+        <v>241</v>
+      </c>
+      <c r="G93" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" t="s">
+        <v>209</v>
+      </c>
+      <c r="E94" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" t="s">
+        <v>240</v>
+      </c>
+      <c r="G95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" t="s">
+        <v>179</v>
+      </c>
+      <c r="E96" t="s">
+        <v>240</v>
+      </c>
+      <c r="G96" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" t="s">
+        <v>241</v>
+      </c>
+      <c r="G97" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" t="s">
+        <v>240</v>
+      </c>
+      <c r="G98" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" t="s">
+        <v>239</v>
+      </c>
+      <c r="E99" t="s">
+        <v>240</v>
+      </c>
+      <c r="G99" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" t="s">
+        <v>241</v>
+      </c>
+      <c r="G100" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" t="s">
+        <v>241</v>
+      </c>
+      <c r="G101" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" t="s">
+        <v>240</v>
+      </c>
+      <c r="G102" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>240</v>
+      </c>
+      <c r="G103" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" t="s">
+        <v>188</v>
+      </c>
+      <c r="E104" t="s">
+        <v>240</v>
+      </c>
+      <c r="G104" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" t="s">
+        <v>241</v>
+      </c>
+      <c r="G105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" t="s">
+        <v>213</v>
+      </c>
+      <c r="E106" t="s">
+        <v>240</v>
+      </c>
+      <c r="G106" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>163</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" t="s">
+        <v>241</v>
+      </c>
+      <c r="G107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>192</v>
+      </c>
+      <c r="D108" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" t="s">
+        <v>241</v>
+      </c>
+      <c r="G108" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" t="s">
+        <v>166</v>
+      </c>
+      <c r="E109" t="s">
+        <v>240</v>
+      </c>
+      <c r="G109" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>241</v>
+      </c>
+      <c r="G111" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>195</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>241</v>
+      </c>
+      <c r="G112" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D113" t="s">
+        <v>215</v>
+      </c>
+      <c r="E113" t="s">
+        <v>240</v>
+      </c>
+      <c r="G113" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" t="s">
+        <v>199</v>
+      </c>
+      <c r="E114" t="s">
+        <v>240</v>
+      </c>
+      <c r="G114" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" t="s">
+        <v>239</v>
+      </c>
+      <c r="E115" t="s">
+        <v>241</v>
+      </c>
+      <c r="G115" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>201</v>
+      </c>
+      <c r="D116" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116" t="s">
+        <v>241</v>
+      </c>
+      <c r="G116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" t="s">
+        <v>241</v>
+      </c>
+      <c r="G119" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D120" t="s">
+        <v>239</v>
+      </c>
+      <c r="E120" t="s">
+        <v>241</v>
+      </c>
+      <c r="G120" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" t="s">
+        <v>216</v>
+      </c>
+      <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="G121" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>217</v>
+      </c>
+      <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="G122" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="s">
+        <v>178</v>
+      </c>
+      <c r="D123" t="s">
+        <v>204</v>
+      </c>
+      <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="G123" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="s">
+        <v>180</v>
+      </c>
+      <c r="E124" t="s">
+        <v>241</v>
+      </c>
+      <c r="G124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="s">
+        <v>74</v>
+      </c>
+      <c r="D125" t="s">
+        <v>218</v>
+      </c>
+      <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="G125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>182</v>
+      </c>
+      <c r="D126" t="s">
+        <v>239</v>
+      </c>
+      <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="G126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>183</v>
+      </c>
+      <c r="D127" t="s">
+        <v>239</v>
+      </c>
+      <c r="E127" t="s">
+        <v>241</v>
+      </c>
+      <c r="G127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>184</v>
+      </c>
+      <c r="D128" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" t="s">
+        <v>241</v>
+      </c>
+      <c r="G128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" t="s">
+        <v>212</v>
+      </c>
+      <c r="E129" t="s">
+        <v>240</v>
+      </c>
+      <c r="G129" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>240</v>
+      </c>
+      <c r="G130" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>187</v>
+      </c>
+      <c r="D131" t="s">
+        <v>188</v>
+      </c>
+      <c r="E131" t="s">
+        <v>240</v>
+      </c>
+      <c r="G131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="s">
+        <v>189</v>
+      </c>
+      <c r="D132" t="s">
+        <v>238</v>
+      </c>
+      <c r="E132" t="s">
+        <v>241</v>
+      </c>
+      <c r="G132" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>161</v>
+      </c>
+      <c r="D133" t="s">
+        <v>219</v>
+      </c>
+      <c r="E133" t="s">
+        <v>240</v>
+      </c>
+      <c r="G133" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>163</v>
+      </c>
+      <c r="D134" t="s">
+        <v>220</v>
+      </c>
+      <c r="E134" t="s">
+        <v>241</v>
+      </c>
+      <c r="G134" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>192</v>
+      </c>
+      <c r="D135" t="s">
+        <v>238</v>
+      </c>
+      <c r="E135" t="s">
+        <v>241</v>
+      </c>
+      <c r="G135" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" t="s">
+        <v>166</v>
+      </c>
+      <c r="E136" t="s">
+        <v>240</v>
+      </c>
+      <c r="G136" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>194</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>241</v>
+      </c>
+      <c r="G138" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>195</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>241</v>
+      </c>
+      <c r="G139" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>196</v>
+      </c>
+      <c r="D140" t="s">
+        <v>221</v>
+      </c>
+      <c r="E140" t="s">
+        <v>240</v>
+      </c>
+      <c r="G140" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>198</v>
+      </c>
+      <c r="D141" t="s">
+        <v>199</v>
+      </c>
+      <c r="E141" t="s">
+        <v>240</v>
+      </c>
+      <c r="G141" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" t="s">
+        <v>239</v>
+      </c>
+      <c r="E142" t="s">
+        <v>241</v>
+      </c>
+      <c r="G142" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>201</v>
+      </c>
+      <c r="D143" t="s">
+        <v>239</v>
+      </c>
+      <c r="E143" t="s">
+        <v>241</v>
+      </c>
+      <c r="G143" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E146" t="s">
+        <v>241</v>
+      </c>
+      <c r="G146" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>95</v>
+      </c>
+      <c r="C147" t="s">
+        <v>163</v>
+      </c>
+      <c r="D147" t="s">
+        <v>225</v>
+      </c>
+      <c r="E147" t="s">
+        <v>241</v>
+      </c>
+      <c r="G147" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" t="s">
+        <v>165</v>
+      </c>
+      <c r="D148" t="s">
+        <v>166</v>
+      </c>
+      <c r="E148" t="s">
+        <v>241</v>
+      </c>
+      <c r="G148" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>95</v>
+      </c>
+      <c r="B149" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149" t="s">
+        <v>226</v>
+      </c>
+      <c r="E149" t="s">
+        <v>240</v>
+      </c>
+      <c r="G149" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>95</v>
+      </c>
+      <c r="B150" t="s">
+        <v>313</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>227</v>
+      </c>
+      <c r="E150" t="s">
+        <v>240</v>
+      </c>
+      <c r="G150" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>95</v>
+      </c>
+      <c r="C152" t="s">
+        <v>194</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>241</v>
+      </c>
+      <c r="G152" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" t="s">
+        <v>195</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>241</v>
+      </c>
+      <c r="G153" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>128</v>
+      </c>
+      <c r="C156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>127</v>
+      </c>
+      <c r="C159" t="s">
+        <v>228</v>
+      </c>
+      <c r="D159" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="5" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>82</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/metadados-depara.xlsx
+++ b/metadados-depara.xlsx
@@ -18,7 +18,7 @@
     <sheet name="contratos_COVID" sheetId="3" r:id="rId4"/>
     <sheet name="datasets_ckan" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
